--- a/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
+++ b/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>免疫检验市场规模/亿元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,231 @@
   </si>
   <si>
     <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 2, 2, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 2, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 3, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 2, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 0, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 5, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 6, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 7, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 3, 4, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 8, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 4, 4, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 3, 5, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 6, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 3, 3, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 2, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 2, 2, 2, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 9, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 3, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 7, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 3, 3, 3, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 4, 5, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 3, 6, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 2, 5, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 2, 2, 3, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 8, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 4, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 3, 5, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 6, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 7, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 2, 5, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 3, 4, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 3, 3, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 2, 4, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 6, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV2-RIN</t>
+  </si>
+  <si>
+    <t>SV1-CSN</t>
+  </si>
+  <si>
+    <t>SV2-CSN</t>
+  </si>
+  <si>
+    <t>SV1-FFN</t>
+  </si>
+  <si>
+    <t>SV2-FFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>SV1-SPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总计</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +274,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -66,13 +324,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -193,8 +544,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204316160"/>
-        <c:axId val="199161472"/>
+        <c:axId val="210434560"/>
+        <c:axId val="203814528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -285,11 +636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204315136"/>
-        <c:axId val="199160896"/>
+        <c:axId val="210433536"/>
+        <c:axId val="203813952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204315136"/>
+        <c:axId val="210433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -299,7 +650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199160896"/>
+        <c:crossAx val="203813952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -307,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199160896"/>
+        <c:axId val="203813952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,12 +669,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204315136"/>
+        <c:crossAx val="210433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199161472"/>
+        <c:axId val="203814528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,12 +684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204316160"/>
+        <c:crossAx val="210434560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="204316160"/>
+        <c:axId val="210434560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199161472"/>
+        <c:crossAx val="203814528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -815,25 +1166,654 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D35">
+    <sortCondition ref="B2:B35"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="0.75" customWidth="1"/>
+    <col min="6" max="8" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16">
+        <v>605</v>
+      </c>
+      <c r="C3" s="16">
+        <v>609</v>
+      </c>
+      <c r="D3" s="16">
+        <v>800</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16">
+        <v>355</v>
+      </c>
+      <c r="G3" s="16">
+        <v>369</v>
+      </c>
+      <c r="H3" s="16">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1145</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1492</v>
+      </c>
+      <c r="D4" s="16">
+        <v>896</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16">
+        <v>443</v>
+      </c>
+      <c r="G4" s="16">
+        <v>426</v>
+      </c>
+      <c r="H4" s="16">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16">
+        <v>951</v>
+      </c>
+      <c r="C5" s="16">
+        <v>924</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1132</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16">
+        <v>800</v>
+      </c>
+      <c r="G5" s="16">
+        <v>920</v>
+      </c>
+      <c r="H5" s="16">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1541</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1777</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1328</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
+        <v>924</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1059</v>
+      </c>
+      <c r="H6" s="16">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="16">
+        <v>714</v>
+      </c>
+      <c r="C7" s="16">
+        <v>723</v>
+      </c>
+      <c r="D7" s="16">
+        <v>815</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16">
+        <v>397</v>
+      </c>
+      <c r="G7" s="16">
+        <v>426</v>
+      </c>
+      <c r="H7" s="16">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1048</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1289</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1152</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>681</v>
+      </c>
+      <c r="G8" s="16">
+        <v>664</v>
+      </c>
+      <c r="H8" s="16">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="16">
+        <v>817</v>
+      </c>
+      <c r="C9" s="16">
+        <v>834</v>
+      </c>
+      <c r="D9" s="16">
+        <v>806</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
+        <v>463</v>
+      </c>
+      <c r="G9" s="16">
+        <v>452</v>
+      </c>
+      <c r="H9" s="16">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1235</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1304</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1368</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18">
+        <v>943</v>
+      </c>
+      <c r="G10" s="18">
+        <v>854</v>
+      </c>
+      <c r="H10" s="18">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="20">
+        <f>SUM(B3:B10)</f>
+        <v>8056</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:G11" si="0">SUM(C3:C10)</f>
+        <v>8952</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>8297</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>5006</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>5170</v>
+      </c>
+      <c r="H11" s="20">
+        <f>SUM(H3:H10)</f>
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22">
+        <f>SUM(B11:D11)</f>
+        <v>25305</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22">
+        <f>SUM(F11:H11)</f>
+        <v>15184</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
+++ b/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>免疫检验市场规模/亿元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,31 +229,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>问题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总计</t>
-    </r>
+    <t>problem No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,5,6,6,6</t>
+  </si>
+  <si>
+    <t>6,6,5,6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每批次的工件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每批次的工序数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +379,28 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -387,41 +482,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210434560"/>
-        <c:axId val="203814528"/>
+        <c:axId val="287538176"/>
+        <c:axId val="336417280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -636,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210433536"/>
-        <c:axId val="203813952"/>
+        <c:axId val="204376576"/>
+        <c:axId val="336414976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210433536"/>
+        <c:axId val="204376576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203813952"/>
+        <c:crossAx val="336414976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -658,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203813952"/>
+        <c:axId val="336414976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,12 +792,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210433536"/>
+        <c:crossAx val="204376576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203814528"/>
+        <c:axId val="336417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210434560"/>
+        <c:crossAx val="287538176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="210434560"/>
+        <c:axId val="287538176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203814528"/>
+        <c:crossAx val="336417280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,6 +861,345 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$20:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SV1-SPN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV1-CSN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SV1-FFN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="288925696"/>
+        <c:axId val="294155904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288925696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294155904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="294155904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>success times</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288925696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SV2-RIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV2-CSN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SV2-FFN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="288926720"/>
+        <c:axId val="200916992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="288926720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200916992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200916992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>success times</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US">
+                  <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="288926720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -765,6 +1227,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1515,295 +2042,375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:N23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="0.75" customWidth="1"/>
     <col min="6" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="11">
         <v>605</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="11">
         <v>609</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>800</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
         <v>355</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="11">
         <v>369</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="11">
         <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <v>1145</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>1492</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>896</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
         <v>443</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>426</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>951</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>924</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>1132</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
         <v>800</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>920</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>1541</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>1777</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>1328</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
         <v>924</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>1059</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>714</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>723</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>815</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
         <v>397</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>426</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>1048</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>1289</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>1152</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>681</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>664</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="11">
         <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>817</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>834</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>806</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>463</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>452</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>1235</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <v>1304</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>1368</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
         <v>943</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="12">
         <v>854</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="12">
         <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="13">
         <f>SUM(B3:B10)</f>
         <v>8056</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="13">
         <f t="shared" ref="C11:G11" si="0">SUM(C3:C10)</f>
         <v>8952</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>8297</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>5006</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>5170</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="13">
         <f>SUM(H3:H10)</f>
         <v>5008</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18">
         <f>SUM(B11:D11)</f>
         <v>25305</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="18">
         <f>SUM(F11:H11)</f>
         <v>15184</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>8056</v>
+      </c>
+      <c r="C21">
+        <v>8952</v>
+      </c>
+      <c r="D21">
+        <v>8297</v>
+      </c>
+      <c r="F21">
+        <v>5006</v>
+      </c>
+      <c r="G21">
+        <v>5170</v>
+      </c>
+      <c r="H21">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <v>8056</v>
+      </c>
+      <c r="G32">
+        <v>8952</v>
+      </c>
+      <c r="H32">
+        <v>8297</v>
+      </c>
+      <c r="I32">
+        <v>5006</v>
+      </c>
+      <c r="J32">
+        <v>5170</v>
+      </c>
+      <c r="K32">
+        <v>5008</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1816,5 +2423,230 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="30">
+        <v>4</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="30">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="30">
+        <v>6</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="30">
+        <v>6</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="30">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="31">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="32">
+        <v>51</v>
+      </c>
+      <c r="B2" s="32">
+        <v>3</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="32">
+        <v>10</v>
+      </c>
+      <c r="E2" s="32">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
+++ b/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,26 +497,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,6 +528,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="287538176"/>
-        <c:axId val="336417280"/>
+        <c:axId val="286411776"/>
+        <c:axId val="36521088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -759,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="204376576"/>
-        <c:axId val="336414976"/>
+        <c:axId val="286268416"/>
+        <c:axId val="36520512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="204376576"/>
+        <c:axId val="286268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336414976"/>
+        <c:crossAx val="36520512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336414976"/>
+        <c:axId val="36520512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,12 +792,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204376576"/>
+        <c:crossAx val="286268416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336417280"/>
+        <c:axId val="36521088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287538176"/>
+        <c:crossAx val="286411776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="287538176"/>
+        <c:axId val="286411776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="336417280"/>
+        <c:crossAx val="36521088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -931,11 +931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288925696"/>
-        <c:axId val="294155904"/>
+        <c:axId val="287053824"/>
+        <c:axId val="36523392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288925696"/>
+        <c:axId val="287053824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +957,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294155904"/>
+        <c:crossAx val="36523392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294155904"/>
+        <c:axId val="36523392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1018,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288925696"/>
+        <c:crossAx val="287053824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="288926720"/>
-        <c:axId val="200916992"/>
+        <c:axId val="287054848"/>
+        <c:axId val="36525120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="288926720"/>
+        <c:axId val="287054848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200916992"/>
+        <c:crossAx val="36525120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200916992"/>
+        <c:axId val="36525120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,11 +1178,278 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288926720"/>
+        <c:crossAx val="287054848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SV1-SPN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV1-CSN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SV1-FFN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SV2-RIN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV2-CSN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SV2-FFN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1292,6 +1559,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2044,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2057,45 +2384,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="14"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="11">
@@ -2119,7 +2446,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="11">
@@ -2143,7 +2470,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="11">
@@ -2167,7 +2494,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="11">
@@ -2191,7 +2518,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="11">
@@ -2215,7 +2542,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="11">
@@ -2239,7 +2566,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="11">
@@ -2263,7 +2590,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="12">
@@ -2287,7 +2614,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="13">
@@ -2317,38 +2644,38 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="18">
+      <c r="A12" s="33"/>
+      <c r="B12" s="31">
         <f>SUM(B11:D11)</f>
         <v>25305</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="18">
+      <c r="F12" s="31">
         <f>SUM(F11:H11)</f>
         <v>15184</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="20" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2373,22 +2700,22 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2443,155 +2770,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="24">
         <v>4</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="24">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="24">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="24">
         <v>6</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="24">
         <v>3</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="24">
         <v>4</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="24">
         <v>5</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="25">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="25">
         <v>8</v>
       </c>
     </row>
@@ -2605,43 +2932,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="A2" s="26">
         <v>51</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="26">
         <v>3</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="26">
         <v>10</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="26">
         <v>100</v>
       </c>
     </row>

--- a/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
+++ b/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,311 +20,311 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
+    <t>增速/%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 2, 2, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 2, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 3, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 2, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [10, 0, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [5, 5, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [4, 6, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 7, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [3, 3, 4, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 8, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 4, 4, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 3, 5, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 6, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 3, 3, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 2, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [2, 2, 2, 2, 2, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 9, 0, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 3, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 7, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 3, 3, 3, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 4, 5, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 3, 6, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 2, 5, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 2, 2, 2, 3, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 8, 0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 4, 4, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 3, 5, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 6, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 7, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 2, 5, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 3, 4, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 3, 3, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 2, 2, 4, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1, 1, 1, 1, 6, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV2-RIN</t>
+  </si>
+  <si>
+    <t>SV1-CSN</t>
+  </si>
+  <si>
+    <t>SV2-CSN</t>
+  </si>
+  <si>
+    <t>SV1-FFN</t>
+  </si>
+  <si>
+    <t>SV2-FFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>SV1-SPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,5,6,6,6</t>
+  </si>
+  <si>
+    <t>6,6,5,6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每批次的工件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每批次的工序数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>免疫检验市场规模/亿元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增速/%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 2, 2, 2, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 2, 2, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 1, 3, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 1, 2, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [10, 0, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [5, 5, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [4, 6, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3, 7, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [3, 3, 4, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 8, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 4, 4, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 3, 5, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 2, 6, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 2, 3, 3, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 2, 2, 4, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [2, 2, 2, 2, 2, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 9, 0, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 3, 4, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 7, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 3, 3, 3, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 4, 5, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 3, 6, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 2, 5, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 2, 2, 2, 3, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 8, 0, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 4, 4, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 3, 5, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 2, 6, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 7, 0, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 2, 5, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 3, 4, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 2, 3, 3, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 2, 2, 4, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1, 1, 1, 1, 6, 0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  SV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SV2-RIN</t>
-  </si>
-  <si>
-    <t>SV1-CSN</t>
-  </si>
-  <si>
-    <t>SV2-CSN</t>
-  </si>
-  <si>
-    <t>SV1-FFN</t>
-  </si>
-  <si>
-    <t>SV2-FFN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>SV1-SPN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problem No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,20,20,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,20,20,20,20,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6,5,6,6,6</t>
-  </si>
-  <si>
-    <t>6,6,5,6,6,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6,6,6,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每批次的工件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每批次的工序数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="286411776"/>
-        <c:axId val="36521088"/>
+        <c:axId val="189209088"/>
+        <c:axId val="161803072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -759,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286268416"/>
-        <c:axId val="36520512"/>
+        <c:axId val="189208064"/>
+        <c:axId val="161802496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286268416"/>
+        <c:axId val="189208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36520512"/>
+        <c:crossAx val="161802496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36520512"/>
+        <c:axId val="161802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,12 +792,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286268416"/>
+        <c:crossAx val="189208064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36521088"/>
+        <c:axId val="161803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286411776"/>
+        <c:crossAx val="189209088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="286411776"/>
+        <c:axId val="189209088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36521088"/>
+        <c:crossAx val="161803072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,6 +868,251 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>免疫检验市场规模/亿元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="146037760"/>
+        <c:axId val="219525056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="146037760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0"/>
+                  <a:t>年份</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219525056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="219525056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>免疫检验市场规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>亿元</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146037760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
@@ -931,11 +1176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="287053824"/>
-        <c:axId val="36523392"/>
+        <c:axId val="189276672"/>
+        <c:axId val="161805376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287053824"/>
+        <c:axId val="189276672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +1202,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36523392"/>
+        <c:crossAx val="161805376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +1210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36523392"/>
+        <c:axId val="161805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287053824"/>
+        <c:crossAx val="189276672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1285,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1110,11 +1355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="287054848"/>
-        <c:axId val="36525120"/>
+        <c:axId val="189278720"/>
+        <c:axId val="161807104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287054848"/>
+        <c:axId val="189278720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36525120"/>
+        <c:crossAx val="161807104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1141,7 +1386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36525120"/>
+        <c:axId val="161807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287054848"/>
+        <c:crossAx val="189278720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,7 +1445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1339,7 +1584,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1494,6 +1739,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1916,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1927,13 +2202,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2036,16 +2311,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2053,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
         <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2067,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2081,13 +2356,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2095,13 +2370,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2109,13 +2384,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2123,13 +2398,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2137,13 +2412,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2151,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2165,13 +2440,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2179,13 +2454,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2193,13 +2468,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2207,13 +2482,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2221,13 +2496,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2235,13 +2510,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2249,13 +2524,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4">
         <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2263,13 +2538,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2277,13 +2552,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6">
         <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -2371,7 +2646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
@@ -2385,16 +2660,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="14"/>
       <c r="F1" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -2402,28 +2677,28 @@
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11">
         <v>605</v>
@@ -2447,7 +2722,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="11">
         <v>1145</v>
@@ -2471,7 +2746,7 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="11">
         <v>951</v>
@@ -2495,7 +2770,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="11">
         <v>1541</v>
@@ -2519,7 +2794,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="11">
         <v>714</v>
@@ -2543,7 +2818,7 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11">
         <v>1048</v>
@@ -2567,7 +2842,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="11">
         <v>817</v>
@@ -2591,7 +2866,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="12">
         <v>1235</v>
@@ -2615,7 +2890,7 @@
     </row>
     <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="13">
         <f>SUM(B3:B10)</f>
@@ -2661,22 +2936,22 @@
     </row>
     <row r="20" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
@@ -2701,22 +2976,22 @@
     </row>
     <row r="31" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="F31" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="K31" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -2771,33 +3046,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="24">
         <v>4</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="24">
         <v>6</v>
@@ -2805,16 +3080,16 @@
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="24">
         <v>4</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="24">
         <v>6</v>
@@ -2822,16 +3097,16 @@
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="24">
         <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="24">
         <v>6</v>
@@ -2839,16 +3114,16 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="24">
         <v>6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="24">
         <v>6</v>
@@ -2856,16 +3131,16 @@
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="24">
         <v>3</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="E6" s="24">
         <v>8</v>
@@ -2873,16 +3148,16 @@
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="24">
         <v>4</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="24">
         <v>8</v>
@@ -2890,16 +3165,16 @@
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="24">
         <v>5</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="E8" s="24">
         <v>8</v>
@@ -2907,16 +3182,16 @@
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="25">
         <v>5</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="25">
         <v>8</v>
@@ -2940,19 +3215,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">

--- a/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
+++ b/毕业论文初稿及各种文档/免疫检验市场规模及预测.xlsx
@@ -667,8 +667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189209088"/>
-        <c:axId val="161803072"/>
+        <c:axId val="186329600"/>
+        <c:axId val="159968064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -759,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189208064"/>
-        <c:axId val="161802496"/>
+        <c:axId val="186328576"/>
+        <c:axId val="159967488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189208064"/>
+        <c:axId val="186328576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161802496"/>
+        <c:crossAx val="159967488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161802496"/>
+        <c:axId val="159967488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,12 +792,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189208064"/>
+        <c:crossAx val="186328576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161803072"/>
+        <c:axId val="159968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,12 +807,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189209088"/>
+        <c:crossAx val="186329600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="189209088"/>
+        <c:axId val="186329600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161803072"/>
+        <c:crossAx val="159968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -877,7 +877,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14953018372703411"/>
+          <c:y val="5.4120541205412057E-2"/>
+          <c:w val="0.81991426071741036"/>
+          <c:h val="0.749019767363028"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -967,11 +977,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146037760"/>
-        <c:axId val="219525056"/>
+        <c:axId val="186330624"/>
+        <c:axId val="159970368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146037760"/>
+        <c:axId val="186330624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1003,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48587620297462819"/>
+              <c:y val="0.8974739227707238"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1013,7 +1030,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219525056"/>
+        <c:crossAx val="159970368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219525056"/>
+        <c:axId val="159970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1101,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146037760"/>
+        <c:crossAx val="186330624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,11 +1193,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189276672"/>
-        <c:axId val="161805376"/>
+        <c:axId val="186361856"/>
+        <c:axId val="159972096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189276672"/>
+        <c:axId val="186361856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1219,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161805376"/>
+        <c:crossAx val="159972096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161805376"/>
+        <c:axId val="159972096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1260,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1263,7 +1279,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189276672"/>
+        <c:crossAx val="186361856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,11 +1371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189278720"/>
-        <c:axId val="161807104"/>
+        <c:axId val="186363392"/>
+        <c:axId val="187507264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189278720"/>
+        <c:axId val="186363392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161807104"/>
+        <c:crossAx val="187507264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1386,7 +1402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161807104"/>
+        <c:axId val="187507264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,14 +1432,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189278720"/>
+        <c:crossAx val="186363392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1551,7 +1566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1679,7 +1693,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1754,8 +1767,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2192,7 +2205,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
